--- a/biology/Zoologie/Crateromys_heaneyi/Crateromys_heaneyi.xlsx
+++ b/biology/Zoologie/Crateromys_heaneyi/Crateromys_heaneyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crateromys heaneyi est une espèce de rongeurs de la sous-famille des Murinés. Elle est endémique des forêts pluviales de Negros et Panay, aux Philippines.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les spécimens adultes analysés mesuraient entre 320 et 337 mm (tête + corps) et avaient une queue mesurant entre 303 et 383 mm[2]. Ils pesaient entre 930 et 1 040 g[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les spécimens adultes analysés mesuraient entre 320 et 337 mm (tête + corps) et avaient une queue mesurant entre 303 et 383 mm. Ils pesaient entre 930 et 1 040 g.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, heaneyi, lui a été donné en l'honneur de Lawrence R. Heaney (d) (zoologiste américain né en 1952) en reconnaissance de sa contribution à la connaissance des mammifères philippins et pour la conservation de la biodiversité de cette région[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, heaneyi, lui a été donné en l'honneur de Lawrence R. Heaney (d) (zoologiste américain né en 1952) en reconnaissance de sa contribution à la connaissance des mammifères philippins et pour la conservation de la biodiversité de cette région. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Pedro C. Gonzales et Robert S. Kennedy, « A New Species of Crateromys (Rodentia: Muridae) from Panay, Philippines », Journal of Mammalogy, Baltimore, Allen Press (d), OUP et ASM, vol. 77, no 1,‎ 16 février 1996, p. 25-40 (ISSN 0022-2372 et 1545-1542, OCLC 1800234, DOI 10.2307/1382706, JSTOR 1382706, lire en ligne)</t>
         </is>
